--- a/Fundamentos-Ciencia-de-Datos/Ejercicios propuestos #1.xlsx
+++ b/Fundamentos-Ciencia-de-Datos/Ejercicios propuestos #1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Itla-Diplomado-Data-Science\Introduccion a Ciencia de Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Itla-Diplomado-Data-Science\Fundamentos-Ciencia-de-Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B253C0C9-E514-47E6-8719-0EC83ACBC4FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60D5BF5-4ADB-4264-9FBA-1563459923C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24570" windowHeight="8595" xr2:uid="{E991D812-851C-422F-863D-390AE13FAA27}"/>
   </bookViews>
@@ -30,15 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Pesos de papas (Lb)</t>
   </si>
   <si>
     <t>Media</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Moda</t>
@@ -399,7 +396,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,8 +413,9 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
+      <c r="D2">
+        <f>AVERAGE(A2:A12)</f>
+        <v>5.0909090909090908</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -425,9 +423,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>MODE(A2:A12)</f>
         <v>2</v>
       </c>
     </row>
@@ -436,10 +435,11 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f>MEDIAN(A2:A12)</f>
         <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
